--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/06,25/10,06,25 Ост СЫР филиалы/дв 10,06,25 днрсч ост сыр.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/06,25/10,06,25 Ост СЫР филиалы/дв 10,06,25 днрсч ост сыр.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\10,06,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\06,25\10,06,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9695FCB0-48DC-453B-BBDC-36FD3C0B2F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEF024B-006B-43AD-BEF5-295A24EF0CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="91">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>ср нов</t>
-  </si>
-  <si>
-    <t>расчет</t>
   </si>
   <si>
     <t>заказ филиала</t>
@@ -321,6 +318,9 @@
       </rPr>
       <t>/ 10,03,25 завод отгрузил 79кг из 260кг</t>
     </r>
+  </si>
+  <si>
+    <t>заказ</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,55 +1045,55 @@
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -1129,45 +1129,47 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -1307,10 +1309,10 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>16</v>
@@ -1412,10 +1414,10 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1">
         <v>35</v>
@@ -1519,10 +1521,10 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>29</v>
@@ -1603,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="AE8" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF8" s="1">
         <f t="shared" si="3"/>
@@ -1630,10 +1632,10 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>13</v>
@@ -1740,10 +1742,10 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1">
         <v>29</v>
@@ -1820,7 +1822,7 @@
         <v>0.6</v>
       </c>
       <c r="AE10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF10" s="1">
         <f t="shared" si="3"/>
@@ -1847,10 +1849,10 @@
     </row>
     <row r="11" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1">
         <v>104</v>
@@ -1930,7 +1932,7 @@
         <v>6.4</v>
       </c>
       <c r="AE11" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF11" s="1">
         <f t="shared" si="3"/>
@@ -1957,10 +1959,10 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -2054,10 +2056,10 @@
     </row>
     <row r="13" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="25">
         <v>22.21</v>
@@ -2074,7 +2076,7 @@
         <v>#N/A</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="28">
@@ -2130,7 +2132,7 @@
         <v>1.546</v>
       </c>
       <c r="AE13" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF13" s="28"/>
       <c r="AG13" s="1"/>
@@ -2154,10 +2156,10 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>239</v>
@@ -2264,10 +2266,10 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1">
         <v>85</v>
@@ -2346,7 +2348,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="AE15" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF15" s="1">
         <f t="shared" si="8"/>
@@ -2373,10 +2375,10 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>79</v>
@@ -2460,7 +2462,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="8"/>
@@ -2487,10 +2489,10 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>76</v>
@@ -2570,7 +2572,7 @@
         <v>6.2</v>
       </c>
       <c r="AE17" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="8"/>
@@ -2597,10 +2599,10 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <v>24</v>
@@ -2677,7 +2679,7 @@
         <v>5.6</v>
       </c>
       <c r="AE18" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF18" s="1">
         <f t="shared" si="8"/>
@@ -2704,10 +2706,10 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
         <v>79</v>
@@ -2788,7 +2790,7 @@
         <v>10.6</v>
       </c>
       <c r="AE19" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF19" s="1">
         <f t="shared" si="8"/>
@@ -2815,10 +2817,10 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1">
         <v>45</v>
@@ -2899,7 +2901,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AE20" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF20" s="1">
         <f t="shared" si="8"/>
@@ -2926,10 +2928,10 @@
     </row>
     <row r="21" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>66.459999999999994</v>
@@ -3006,7 +3008,7 @@
         <v>3.0019999999999998</v>
       </c>
       <c r="AE21" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF21" s="1">
         <f t="shared" si="8"/>
@@ -3033,10 +3035,10 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -3105,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF22" s="15">
         <f t="shared" si="8"/>
@@ -3132,10 +3134,10 @@
     </row>
     <row r="23" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="25">
         <v>42.165999999999997</v>
@@ -3154,7 +3156,7 @@
         <v>#N/A</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" s="28">
         <v>3.5</v>
@@ -3212,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF23" s="28"/>
       <c r="AG23" s="1"/>
@@ -3236,10 +3238,10 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="13">
         <v>10.917999999999999</v>
@@ -3312,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF24" s="1">
         <f>G24*P24</f>
@@ -3339,10 +3341,10 @@
     </row>
     <row r="25" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="25">
         <v>36.979999999999997</v>
@@ -3359,7 +3361,7 @@
         <v>#N/A</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="28">
@@ -3415,7 +3417,7 @@
         <v>1.4312</v>
       </c>
       <c r="AE25" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF25" s="28"/>
       <c r="AG25" s="1"/>
@@ -3439,10 +3441,10 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -3536,10 +3538,10 @@
     </row>
     <row r="27" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="25">
         <v>14.42</v>
@@ -3558,7 +3560,7 @@
         <v>#N/A</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" s="28">
         <v>2.5</v>
@@ -3616,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF27" s="28"/>
       <c r="AG27" s="1"/>
@@ -3640,10 +3642,10 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <v>29</v>
@@ -3749,10 +3751,10 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1">
         <v>64.44</v>
@@ -3829,7 +3831,7 @@
         <v>5.8680000000000003</v>
       </c>
       <c r="AE29" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF29" s="1">
         <f t="shared" si="10"/>
@@ -3856,10 +3858,10 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1">
         <v>37</v>
@@ -3968,10 +3970,10 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1">
         <v>70</v>
@@ -4050,7 +4052,7 @@
         <v>5.6</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="10"/>
@@ -4077,10 +4079,10 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1">
         <v>114.245</v>
@@ -4157,7 +4159,7 @@
         <v>10.0128</v>
       </c>
       <c r="AE32" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF32" s="1">
         <f t="shared" si="10"/>
@@ -4184,10 +4186,10 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
@@ -4268,7 +4270,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF33" s="1">
         <f t="shared" si="10"/>
@@ -4295,10 +4297,10 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1">
         <v>320</v>
@@ -4382,7 +4384,7 @@
         <v>33</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF34" s="1">
         <f t="shared" si="10"/>
@@ -4409,10 +4411,10 @@
     </row>
     <row r="35" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
         <v>70</v>
@@ -4491,7 +4493,7 @@
         <v>5</v>
       </c>
       <c r="AE35" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF35" s="1">
         <f t="shared" si="10"/>
@@ -4518,10 +4520,10 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
@@ -4590,7 +4592,7 @@
         <v>1.3974</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF36" s="1">
         <f t="shared" si="10"/>
@@ -4617,10 +4619,10 @@
     </row>
     <row r="37" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="25">
@@ -4637,7 +4639,7 @@
         <v>#N/A</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J37" s="28"/>
       <c r="K37" s="28">
@@ -4715,10 +4717,10 @@
     </row>
     <row r="38" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <v>166</v>
@@ -4798,7 +4800,7 @@
         <v>19</v>
       </c>
       <c r="AE38" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF38" s="1">
         <f>G38*P38</f>
@@ -4825,10 +4827,10 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="13">
         <v>141.35400000000001</v>
@@ -4910,7 +4912,7 @@
         <v>8.6311999999999998</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF39" s="1">
         <f>G39*P39</f>
@@ -4937,10 +4939,10 @@
     </row>
     <row r="40" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25">
@@ -4959,7 +4961,7 @@
         <v>#N/A</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J40" s="28">
         <v>10.5</v>
@@ -5091,10 +5093,10 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13">
@@ -5195,10 +5197,10 @@
     </row>
     <row r="43" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="25" t="s">
         <v>35</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>36</v>
       </c>
       <c r="C43" s="25">
         <v>201</v>
@@ -5217,7 +5219,7 @@
         <v>120</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J43" s="28">
         <v>113</v>
@@ -5275,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="AE43" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF43" s="28"/>
       <c r="AG43" s="1"/>
@@ -5299,10 +5301,10 @@
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>60</v>
@@ -5375,7 +5377,7 @@
         <v>38</v>
       </c>
       <c r="AE44" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
